--- a/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -792,64 +728,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.78</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -515,6 +532,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -722,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300996-普联软件.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -532,6 +549,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015919</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015920</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
